--- a/mfa/S_cerevisiae/run_files/FY4_batch/data_expmt1.xlsx
+++ b/mfa/S_cerevisiae/run_files/FY4_batch/data_expmt1.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">0.124332 0.003714 0.245109 0.142005 0.119038 0.2494 0.000962 0.11544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">2-isopropylmaleate</t>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">0.226422 0.009169 0.242924 0.259814 0.010627 0.251044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">alpha-ketoisovalerate</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">0.533645 0.0 0.0 0.0 0.0 0.009817 0.456538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.027389 0.027389 0.027389 0.027389 0.027389 0.027389 0.027389</t>
+    <t xml:space="preserve">0.028282 0.028282 0.028282 0.028282 0.028282 0.028282 0.028282</t>
   </si>
   <si>
     <t xml:space="preserve">6-phospho-D-gluconate</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">0.039781 0.059976 0.10002 0.139189 0.139151 0.131797 0.136981 0.118132 0.082372 0.042264 0.010337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664 0.005664</t>
+    <t xml:space="preserve">0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849 0.005849</t>
   </si>
   <si>
     <t xml:space="preserve">AMP</t>
@@ -156,7 +156,7 @@
     <t xml:space="preserve">0.083068 0.130644 0.184796 0.249167 0.169943 0.118907 0.063475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-arginine</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">0.259346 0.237831 0.00233 0.258431 0.242062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-aspartate</t>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">0.489552 0.00081 0.006566 0.503072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.01881 0.01881 0.01881 0.01881</t>
+    <t xml:space="preserve">0.019424 0.019424 0.019424 0.019424</t>
   </si>
   <si>
     <t xml:space="preserve">dihydroxyacetone P</t>
@@ -243,7 +243,7 @@
     <t xml:space="preserve">0.333312 0.000845 0.0 0.350649 0.000224 0.0 0.31497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.009371 0.009371 0.009371 0.009371 0.009371 0.009371 0.009371</t>
+    <t xml:space="preserve">0.009677 0.009677 0.009677 0.009677 0.009677 0.009677 0.009677</t>
   </si>
   <si>
     <t xml:space="preserve">fructose 16BP</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">0.270504 0.243878 0.005893 0.263993 0.215732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005047 0.005047 0.005047 0.005047 0.005047</t>
+    <t xml:space="preserve">0.005212 0.005212 0.005212 0.005212 0.005212</t>
   </si>
   <si>
     <t xml:space="preserve">fumarate</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">0.513946 0.0 0.0 0.486054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008355 0.008355 0.008355 0.008355</t>
+    <t xml:space="preserve">0.008628 0.008628 0.008628 0.008628</t>
   </si>
   <si>
     <t xml:space="preserve">glyceraldehyde 3P</t>
@@ -309,7 +309,7 @@
     <t xml:space="preserve">0.516815 0.002533 0.0 0.012565 0.0 0.000822 0.467265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.010748 0.010748 0.010748 0.010748 0.010748 0.010748 0.010748</t>
+    <t xml:space="preserve">0.011099 0.011099 0.011099 0.011099 0.011099 0.011099 0.011099</t>
   </si>
   <si>
     <t xml:space="preserve">alpha-D-glucosamine 6-phosphate</t>
@@ -360,7 +360,7 @@
     <t xml:space="preserve">0.458914 0.052641 0.488445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.012074 0.012074 0.012074</t>
+    <t xml:space="preserve">0.012467 0.012467 0.012467</t>
   </si>
   <si>
     <t xml:space="preserve">L-glycine</t>
@@ -378,7 +378,7 @@
     <t xml:space="preserve">0.519614 0.001418 0.000199 0.478769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">glycerol 3P</t>
@@ -426,7 +426,7 @@
     <t xml:space="preserve">0.01627 0.063092 0.100771 0.144637 0.137641 0.142801 0.126479 0.123484 0.089136 0.046022 0.009667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808 0.009808</t>
+    <t xml:space="preserve">0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128 0.010128</t>
   </si>
   <si>
     <t xml:space="preserve">IMP</t>
@@ -486,7 +486,7 @@
     <t xml:space="preserve">0.137067 0.24751 0.114159 0.130373 0.255052 0.115839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006944 0.006944 0.006944 0.006944 0.006944 0.006944</t>
+    <t xml:space="preserve">0.00717 0.00717 0.00717 0.00717 0.00717 0.00717</t>
   </si>
   <si>
     <t xml:space="preserve">L-methionine</t>
@@ -519,7 +519,7 @@
     <t xml:space="preserve">0.491866 0.0 0.072469 0.435665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.066671 0.066671 0.066671 0.066671</t>
+    <t xml:space="preserve">0.068846 0.068846 0.068846 0.068846</t>
   </si>
   <si>
     <t xml:space="preserve">phosphoenolpyruvate</t>
@@ -540,7 +540,7 @@
     <t xml:space="preserve">0.114567 0.026613 0.104305 0.160854 0.131029 0.107731 0.148601 0.091535 0.025149 0.089616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046 0.0046</t>
+    <t xml:space="preserve">0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475 0.00475</t>
   </si>
   <si>
     <t xml:space="preserve">L-phenylalanine</t>
@@ -558,7 +558,7 @@
     <t xml:space="preserve">0.110666 0.02897 0.106005 0.15776 0.127154 0.131612 0.129702 0.099241 0.019633 0.089257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097 0.007097</t>
+    <t xml:space="preserve">0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329 0.007329</t>
   </si>
   <si>
     <t xml:space="preserve">keto-phenylpyruvate</t>
@@ -576,7 +576,7 @@
     <t xml:space="preserve">0.151244 0.098225 0.262024 0.255873 0.098448 0.134186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.005241 0.005241 0.005241 0.005241 0.005241 0.005241</t>
+    <t xml:space="preserve">0.005412 0.005412 0.005412 0.005412 0.005412 0.005412</t>
   </si>
   <si>
     <t xml:space="preserve">L-proline</t>
@@ -594,7 +594,7 @@
     <t xml:space="preserve">0.302063 0.005454 0.193963 0.189758 0.005861 0.302901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008845 0.008845 0.008845 0.008845 0.008845 0.008845</t>
+    <t xml:space="preserve">0.009133 0.009133 0.009133 0.009133 0.009133 0.009133</t>
   </si>
   <si>
     <t xml:space="preserve">ribose 5P</t>
@@ -612,7 +612,7 @@
     <t xml:space="preserve">0.182174 0.026308 0.164306 0.150348 0.141168 0.162716 0.023644 0.149336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.007337 0.007337 0.007337 0.007337 0.007337 0.007337 0.007337 0.007337</t>
+    <t xml:space="preserve">0.007576 0.007576 0.007576 0.007576 0.007576 0.007576 0.007576 0.007576</t>
   </si>
   <si>
     <t xml:space="preserve">sedoheptulose 7P</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">0.454027 0.045742 0.055477 0.444754</t>
   </si>
   <si>
-    <t xml:space="preserve">0.013127 0.013127 0.013127 0.013127</t>
+    <t xml:space="preserve">0.013555 0.013555 0.013555 0.013555</t>
   </si>
   <si>
     <t xml:space="preserve">L-serine</t>
@@ -681,7 +681,7 @@
     <t xml:space="preserve">0.051378 0.015076 0.097389 0.100724 0.120153 0.132305 0.150989 0.116495 0.086215 0.082171 0.013697 0.033408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723 0.004723</t>
+    <t xml:space="preserve">0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877 0.004877</t>
   </si>
   <si>
     <t xml:space="preserve">L-tryptophan</t>
@@ -741,22 +741,22 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">EX_glc__D_e.f</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIOMASS.f</t>
   </si>
   <si>
-    <t xml:space="preserve">EX_glc__D_e.f</t>
-  </si>
-  <si>
     <t xml:space="preserve">EX_etoh_e.f</t>
   </si>
   <si>
-    <t xml:space="preserve">EX_lac_e.f</t>
+    <t xml:space="preserve">EX_ac_e.f</t>
   </si>
   <si>
     <t xml:space="preserve">EX_glyc_e.f</t>
   </si>
   <si>
-    <t xml:space="preserve">EX_ac_e.f</t>
+    <t xml:space="preserve">EX_o2_e.f</t>
   </si>
   <si>
     <t xml:space="preserve">DIL_2ippm_d1.f</t>
@@ -916,7 +916,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -945,6 +945,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1005,7 +1011,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1028,10 +1034,10 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2011,7 +2017,7 @@
       <c r="C33" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="0" t="s">
         <v>189</v>
       </c>
       <c r="E33" s="0" t="s">
@@ -2289,10 +2295,10 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2311,15 +2317,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.255</v>
+      <c r="B2" s="2" t="n">
+        <v>20.4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.01</v>
+        <f aca="false">MIN(0.1*B2, 4.03)</f>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,10 +2334,10 @@
         <v>240</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>25.857</v>
+        <v>0.255</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.809</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,11 +2345,11 @@
         <v>241</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>23.994</v>
+        <v>32.67</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">MIN(3.114, 0.1*B4)</f>
-        <v>2.3994</v>
+        <f aca="false">MIN(0.1*B4, 3.06)</f>
+        <v>3.06</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,11 +2357,11 @@
         <v>242</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.022</v>
+        <v>0.97</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">MIN(0.043, 0.1*B5)</f>
-        <v>0.0022</v>
+        <f aca="false">MIN(0.1*B5, 0.14)</f>
+        <v>0.097</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,11 +2369,11 @@
         <v>243</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2.271</v>
+        <v>2.26</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">MIN(0.298, 0.1*B6)</f>
-        <v>0.2271</v>
+        <f aca="false">MIN(0.1*B6, 0.23)</f>
+        <v>0.226</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,11 +2381,11 @@
         <v>244</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.493</v>
+        <v>2.73</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">MIN(0.069, 0.1*B7)</f>
-        <v>0.0493</v>
+        <f aca="false">MIN(0.1*B7, 0.23)</f>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,7 +2846,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
